--- a/medicine/Mort/Obituarophilie/Obituarophilie.xlsx
+++ b/medicine/Mort/Obituarophilie/Obituarophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'obituarophilie est le besoin ressenti par une personne de faire la collection de faire-part de décès imprimés ou d'avis de décès publiés dans les journaux.
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce terme nouveau, dont il n'existait pas, jusqu'alors, d'équivalent connu en français, a été proposé le 2 mars 2004 par un contributeur du newsgroup[1], en réponse à la question d'un autre contributeur, se disant collectionneur depuis seize ans, qui s'interrogeait sur le nom porté par ce type de collection.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terme nouveau, dont il n'existait pas, jusqu'alors, d'équivalent connu en français, a été proposé le 2 mars 2004 par un contributeur du newsgroup, en réponse à la question d'un autre contributeur, se disant collectionneur depuis seize ans, qui s'interrogeait sur le nom porté par ce type de collection.
 L'inventeur du terme, se basant sur l'une des significations du mot obituaire, lequel signifie, selon le Petit Robert, « ce qui est relatif au décès », a proposé les termes suivants :
 obituarothèque (la collection),
 obituarophilie (le besoin de cette collection),
@@ -550,7 +564,9 @@
           <t>Histoire des faire-part</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, on trouve trace de faire-part de décès imprimés au moins dès la fin du XVIIIe siècle.
 </t>
